--- a/DateBase/orders/Nha Thu_2024-11-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-29.xlsx
@@ -888,6 +888,9 @@
       <c r="G2" t="str">
         <v>0202031510201020105103101044346101010155151051021051010101363247151010333</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
